--- a/BRS/UploadedFiles/FileUploadFormat/Template Item Master.xlsx
+++ b/BRS/UploadedFiles/FileUploadFormat/Template Item Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felix IT\Projects\BRS\BRS\UploadedFiles\FileUploadFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB6192-3F5E-4D93-8CF9-875F5F4B4C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8290835-62DF-44ED-855A-4114D7F5BC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TOP</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>RETAIL_PRICE</t>
+  </si>
+  <si>
+    <t>COGS</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M884"/>
+  <dimension ref="A1:N884"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -402,7 +405,7 @@
     <col min="13" max="13" width="17.53125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -442,8 +445,11 @@
       <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="N1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10000020</v>
       </c>
@@ -483,8 +489,11 @@
       <c r="M2" s="4">
         <v>269000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="N2" s="4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -499,7 +508,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -514,7 +523,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -529,7 +538,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -544,7 +553,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -559,7 +568,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -574,7 +583,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -589,7 +598,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -604,7 +613,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -619,7 +628,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -634,7 +643,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -649,7 +658,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -664,7 +673,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -679,7 +688,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
